--- a/mb-pls/km2/km2_cluster1.xlsx
+++ b/mb-pls/km2/km2_cluster1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,19 +396,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>68.18181818181817</v>
+        <v>70.45454545454545</v>
       </c>
       <c r="C2">
-        <v>85.71428571428571</v>
+        <v>86.11111111111111</v>
       </c>
       <c r="D2">
         <v>44</v>
       </c>
       <c r="E2">
-        <v>4.369040848764264E-10</v>
+        <v>1.083516922168276E-10</v>
       </c>
       <c r="F2">
-        <v>6.240238548572206</v>
+        <v>6.454814286827956</v>
       </c>
     </row>
     <row r="3">
@@ -421,16 +421,16 @@
         <v>70</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="D3">
         <v>40</v>
       </c>
       <c r="E3">
-        <v>2.190448227894884E-09</v>
+        <v>8.177325064588236E-09</v>
       </c>
       <c r="F3">
-        <v>5.983014824498708</v>
+        <v>5.764761800758095</v>
       </c>
     </row>
     <row r="4">
@@ -440,19 +440,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>54.38596491228071</v>
+        <v>56.14035087719298</v>
       </c>
       <c r="C4">
-        <v>88.57142857142857</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="D4">
         <v>56.99999999999999</v>
       </c>
       <c r="E4">
-        <v>1.613881019544541E-06</v>
+        <v>7.186693087802802E-07</v>
       </c>
       <c r="F4">
-        <v>4.796591688993338</v>
+        <v>4.956249468225285</v>
       </c>
     </row>
     <row r="5">
@@ -465,60 +465,60 @@
         <v>65.51724137931035</v>
       </c>
       <c r="C5">
-        <v>54.28571428571428</v>
+        <v>52.77777777777778</v>
       </c>
       <c r="D5">
         <v>29</v>
       </c>
       <c r="E5">
-        <v>7.735617715194597E-05</v>
+        <v>0.0001417460389776161</v>
       </c>
       <c r="F5">
-        <v>3.952446656355984</v>
+        <v>3.805101524235765</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>X12x2_MAT1FRLAV_1=2</t>
+          <t>LR_LRF=1</t>
         </is>
       </c>
       <c r="B6">
-        <v>52.5</v>
+        <v>68.75</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>30.55555555555556</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>0.00342178605018749</v>
+        <v>0.004740466022500109</v>
       </c>
       <c r="F6">
-        <v>2.927063867171692</v>
+        <v>2.824160362261472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LR_LRF=1</t>
+          <t>X12x2_MAT1FRLAV_1=2</t>
         </is>
       </c>
       <c r="B7">
-        <v>68.75</v>
+        <v>52.5</v>
       </c>
       <c r="C7">
-        <v>31.42857142857143</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>0.003503489031522808</v>
+        <v>0.006089967014640646</v>
       </c>
       <c r="F7">
-        <v>2.91971742577288</v>
+        <v>2.742897616899211</v>
       </c>
     </row>
     <row r="8">
@@ -531,16 +531,16 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C8">
-        <v>34.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="D8">
         <v>19</v>
       </c>
       <c r="E8">
-        <v>0.006558199954796748</v>
+        <v>0.008989408636901657</v>
       </c>
       <c r="F8">
-        <v>2.71848313214831</v>
+        <v>2.612456671110756</v>
       </c>
     </row>
     <row r="9">
@@ -553,16 +553,16 @@
         <v>56.00000000000001</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="D9">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>0.0146454086211839</v>
+        <v>0.02062105860091171</v>
       </c>
       <c r="F9">
-        <v>2.441030726475534</v>
+        <v>2.314851532482314</v>
       </c>
     </row>
     <row r="10">
@@ -575,236 +575,280 @@
         <v>46.93877551020408</v>
       </c>
       <c r="C10">
-        <v>65.71428571428571</v>
+        <v>63.88888888888889</v>
       </c>
       <c r="D10">
         <v>49</v>
       </c>
       <c r="E10">
-        <v>0.01582215695704602</v>
+        <v>0.02818401968868811</v>
       </c>
       <c r="F10">
-        <v>2.412992227901709</v>
+        <v>2.194715395168379</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>y=Sain</t>
+          <t>X25x1_ElvAlterChoiPers=1</t>
         </is>
       </c>
       <c r="B11">
-        <v>17.24137931034483</v>
+        <v>45.28301886792453</v>
       </c>
       <c r="C11">
-        <v>14.28571428571428</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E11">
-        <v>0.01710067354360464</v>
+        <v>0.04330404497544037</v>
       </c>
       <c r="F11">
-        <v>-2.384536026241585</v>
+        <v>2.020765507637563</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>T10_PS_EauDebi_3=1</t>
+          <t>X25x1_ElvAlterChoiPers=0</t>
         </is>
       </c>
       <c r="B12">
-        <v>21.42857142857143</v>
+        <v>25.53191489361702</v>
       </c>
       <c r="C12">
-        <v>25.71428571428571</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="D12">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E12">
-        <v>0.01644954638772128</v>
+        <v>0.04330404497544038</v>
       </c>
       <c r="F12">
-        <v>-2.398785524853765</v>
+        <v>-2.020765507637563</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>T13_ENG_milieuDegrad.x=0</t>
+          <t>y=Sain</t>
         </is>
       </c>
       <c r="B13">
-        <v>23.52941176470588</v>
+        <v>20.68965517241379</v>
       </c>
       <c r="C13">
-        <v>34.28571428571428</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="D13">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E13">
-        <v>0.01582215695704603</v>
+        <v>0.04284597939687979</v>
       </c>
       <c r="F13">
-        <v>-2.412992227901709</v>
+        <v>-2.025208303597462</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>X06x1_gene_majo_1_rec=1</t>
+          <t>T10_PS_EauDebi_3=1</t>
         </is>
       </c>
       <c r="B14">
-        <v>28.39506172839506</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="C14">
-        <v>65.71428571428571</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="D14">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="E14">
-        <v>0.006558199954796755</v>
+        <v>0.03279516985180232</v>
       </c>
       <c r="F14">
-        <v>-2.71848313214831</v>
+        <v>-2.134581990109311</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LR_LRF=0</t>
+          <t>T13_ENG_milieuDegrad.x=0</t>
         </is>
       </c>
       <c r="B15">
-        <v>28.57142857142857</v>
+        <v>25.49019607843137</v>
       </c>
       <c r="C15">
-        <v>68.57142857142857</v>
+        <v>36.11111111111111</v>
       </c>
       <c r="D15">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E15">
-        <v>0.003503489031522805</v>
+        <v>0.02818401968868813</v>
       </c>
       <c r="F15">
-        <v>-2.91971742577288</v>
+        <v>-2.194715395168379</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>X12x2_MAT1FRLAV_1=0</t>
+          <t>X06x1_gene_majo_1_rec=1</t>
         </is>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>29.62962962962963</v>
       </c>
       <c r="C16">
-        <v>5.714285714285714</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E16">
-        <v>0.0006771638975043184</v>
+        <v>0.008989408636901652</v>
       </c>
       <c r="F16">
-        <v>-3.398661823503218</v>
+        <v>-2.612456671110756</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ENG_TROU=0</t>
+          <t>LR_LRF=0</t>
         </is>
       </c>
       <c r="B17">
-        <v>22.53521126760564</v>
+        <v>29.76190476190476</v>
       </c>
       <c r="C17">
-        <v>45.71428571428572</v>
+        <v>69.44444444444444</v>
       </c>
       <c r="D17">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E17">
-        <v>7.735617715194597E-05</v>
+        <v>0.004740466022500106</v>
       </c>
       <c r="F17">
-        <v>-3.952446656355984</v>
+        <v>-2.824160362261472</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>y=PS_malade</t>
+          <t>X12x2_MAT1FRLAV_1=0</t>
         </is>
       </c>
       <c r="B18">
-        <v>6.451612903225806</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>5.714285714285714</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>2.577394239723951E-05</v>
+        <v>0.0004588637935558945</v>
       </c>
       <c r="F18">
-        <v>-4.207913552471214</v>
+        <v>-3.503687325023753</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>X19x2_ABB_E=0</t>
+          <t>ENG_TROU=0</t>
         </is>
       </c>
       <c r="B19">
-        <v>9.302325581395349</v>
+        <v>23.94366197183098</v>
       </c>
       <c r="C19">
-        <v>11.42857142857143</v>
+        <v>47.22222222222222</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E19">
-        <v>1.613881019544541E-06</v>
+        <v>0.0001417460389776161</v>
       </c>
       <c r="F19">
-        <v>-4.796591688993338</v>
+        <v>-3.805101524235765</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>y=PS_malade</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>6.451612903225806</v>
+      </c>
+      <c r="C20">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="D20">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>1.500453629301917E-05</v>
+      </c>
+      <c r="F20">
+        <v>-4.32862177189366</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>X19x2_ABB_E=0</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>9.302325581395349</v>
+      </c>
+      <c r="C21">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="D21">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>7.186693087802813E-07</v>
+      </c>
+      <c r="F21">
+        <v>-4.956249468225285</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>X18x2_ABBTX_PS=0</t>
         </is>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>8.928571428571429</v>
       </c>
-      <c r="C20">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="D20">
+      <c r="C22">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="D22">
         <v>56.00000000000001</v>
       </c>
-      <c r="E20">
-        <v>4.369040848764264E-10</v>
-      </c>
-      <c r="F20">
-        <v>-6.240238548572206</v>
+      <c r="E22">
+        <v>1.083516922168276E-10</v>
+      </c>
+      <c r="F22">
+        <v>-6.454814286827956</v>
       </c>
     </row>
   </sheetData>
